--- a/src/test/resources/demo/fill/list.xlsx
+++ b/src/test/resources/demo/fill/list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuangjiaju/IdeaProjects/easyexcel/src/test/resources/demo/fill/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907244FA-76DA-CF41-8C0E-DD2D3FF97511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8AB21D-8F7F-7B49-849D-D9F4EE26DEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,15 +34,15 @@
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{.date}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>{.name}dd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.name}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -66,33 +66,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,7 +109,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -426,11 +419,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -457,7 +451,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -471,7 +465,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -485,7 +479,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
